--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>ALLWIN-PRAVEEN</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>PRABHA</t>
+  </si>
+  <si>
+    <t>CNR</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,16 +190,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -293,22 +309,12 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -317,6 +323,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,18 +655,18 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" activeCellId="1" sqref="G7 G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -652,22 +678,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="1"/>
@@ -675,409 +701,323 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="15">
         <v>20580</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="17">
         <v>44365</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
-        <v>3800</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2">
+      <c r="C3" s="15">
+        <v>1300</v>
+      </c>
+      <c r="E3" s="13">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="17">
         <v>23370</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>2960</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2">
+      <c r="C4" s="15">
+        <v>3020</v>
+      </c>
+      <c r="E4" s="13">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="8">
-        <v>192030</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="A5" s="2">
+      <c r="G4" s="17">
+        <v>42030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1460</v>
+      </c>
+      <c r="E5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="F5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="17">
+        <v>163020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
         <v>10910</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="8">
-        <v>163020</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
+      <c r="E6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="17">
+        <v>418310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="15">
         <v>5670</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E7" s="13">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="17">
+        <v>16660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="17">
+        <v>429580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15">
+        <v>630</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="17">
+        <v>18730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2250</v>
+      </c>
+      <c r="E10" s="13">
+        <v>9</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17">
+        <v>19910</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>49880</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
+        <f>SUM(G2:G10)</f>
+        <v>1175975</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="15">
+        <v>26680</v>
+      </c>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1240</v>
+      </c>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="G6" s="8">
-        <v>418310</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3300</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8">
-        <v>16660</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="11">
-        <v>630</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8">
-        <v>429580</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2250</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="8">
-        <v>18730</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11">
-        <v>49880</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="8">
-        <v>19910</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43300</v>
+      </c>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="C11" s="11">
-        <v>26680</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="14" t="s">
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5770</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1150</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="15">
+        <v>7770</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="15">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="16" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="15">
+        <v>37350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7">
+        <f>SUM(C2:C19)</f>
+        <v>227420</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="10">
-        <f>SUM(G2:G10)</f>
-        <v>1325975</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="12"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1240</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11">
-        <v>43300</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="12"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11">
-        <v>5770</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1150</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="11">
-        <v>7770</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="11">
-        <v>5160</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="11">
-        <v>37350</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="7">
-        <f>SUM(C2:C18)</f>
-        <v>228400</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="18">
+        <f>C20+G11</f>
+        <v>1403395</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B21" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1085,24 +1025,24 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="D22" s="12"/>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1"/>
     <row r="24" spans="1:10">
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1"/>
     <row r="26" spans="1:10">
-      <c r="G26" s="13"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:10">
       <c r="F27" s="6"/>
@@ -1124,7 +1064,7 @@
   <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <conditionalFormatting sqref="F29:F35">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
@@ -1212,10 +1152,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
     </row>

--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -157,7 +157,7 @@
     <t>PRABHA</t>
   </si>
   <si>
-    <t>CNR</t>
+    <t>T MURUGAN</t>
   </si>
 </sst>
 </file>
@@ -315,14 +315,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -339,10 +331,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +653,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,361 +701,364 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="13">
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>20580</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>44365</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="13">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>1300</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>23370</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="13">
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>3020</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>42030</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="13">
+    <row r="5" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1460</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="13">
+        <v>10910</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>163020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="13">
+    <row r="6" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15">
-        <v>10910</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="13">
+        <v>5670</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>418310</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="13">
+    <row r="7" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
-        <v>5670</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="13">
+        <v>3300</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>16660</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A8" s="13">
+    <row r="8" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15">
-        <v>3300</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13">
+        <v>630</v>
+      </c>
+      <c r="E8" s="11">
         <v>7</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>429580</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="15">
-        <v>630</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2250</v>
+      </c>
+      <c r="E9" s="11">
         <v>8</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>18730</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A10" s="13">
+    <row r="10" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="15">
-        <v>2250</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="C10" s="13">
+        <v>49880</v>
+      </c>
+      <c r="E10" s="11">
+        <v>9</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>19910</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A11" s="13">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="15">
-        <v>49880</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="B11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="13">
+        <v>26680</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20">
+      <c r="F11" s="18"/>
+      <c r="G11" s="17">
         <f>SUM(G2:G10)</f>
         <v>1175975</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A12" s="13">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1240</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43300</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5770</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="C12" s="15">
-        <v>26680</v>
-      </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1150</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="C13" s="15">
-        <v>1240</v>
-      </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="13">
+        <v>7770</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1640</v>
+      </c>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5160</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="C14" s="15">
-        <v>43300</v>
-      </c>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5770</v>
-      </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1150</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="15">
-        <v>7770</v>
-      </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="15">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="16" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>37350</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="7">
         <f>SUM(C2:C19)</f>
-        <v>227420</v>
-      </c>
-      <c r="F20" s="16" t="s">
+        <v>227600</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <f>C20+G11</f>
-        <v>1403395</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+        <v>1403575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="9"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1"/>
-    <row r="24" spans="1:10">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1"/>
-    <row r="26" spans="1:10">
-      <c r="G26" s="10"/>
-    </row>
+    <row r="23" spans="1:10">
+      <c r="D23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1"/>
+    <row r="25" spans="1:10">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1"/>
     <row r="27" spans="1:10">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1"/>
-    <row r="33" spans="6:6">
-      <c r="F33" s="6"/>
-    </row>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="33" spans="6:6" ht="15" customHeight="1"/>
     <row r="34" spans="6:6">
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:C27">
@@ -1066,12 +1069,12 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A20:B20"/>
   </mergeCells>
-  <conditionalFormatting sqref="F29:F35">
+  <conditionalFormatting sqref="F30:F36">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1090,7 +1093,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G33">
+  <conditionalFormatting sqref="G28:G34">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1102,7 +1105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+  <conditionalFormatting sqref="G37">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -1111,7 +1114,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J32">
+  <conditionalFormatting sqref="J24:J33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>

--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -656,7 +656,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="13">
-        <v>5670</v>
+        <v>670</v>
       </c>
       <c r="E6" s="11">
         <v>5</v>
@@ -1005,14 +1005,14 @@
       <c r="B20" s="20"/>
       <c r="C20" s="7">
         <f>SUM(C2:C19)</f>
-        <v>227600</v>
+        <v>222600</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="16">
         <f>C20+G11</f>
-        <v>1403575</v>
+        <v>1398575</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">

--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -655,7 +655,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>

--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -656,7 +656,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -130,9 +130,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>SATHISH SA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grand Total </t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>T MURUGAN</t>
+  </si>
+  <si>
+    <t>SATHISH SI</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>20580</v>
+        <v>10580</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="15">
         <v>163020</v>
@@ -815,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="15">
         <v>16660</v>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="13">
         <v>2250</v>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G10" s="15">
         <v>19910</v>
@@ -968,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="13">
         <v>1640</v>
@@ -1000,19 +1000,19 @@
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="7">
         <f>SUM(C2:C19)</f>
-        <v>222600</v>
+        <v>212600</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="16">
         <f>C20+G11</f>
-        <v>1398575</v>
+        <v>1388575</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
@@ -1022,7 +1022,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>ALLWIN-PRAVEEN</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grand Total </t>
-  </si>
-  <si>
-    <t>KIRUBA</t>
   </si>
   <si>
     <t>94429 64111</t>
@@ -226,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -253,32 +250,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -288,11 +259,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -323,7 +303,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,17 +312,17 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +633,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,7 +648,7 @@
     <col min="5" max="5" width="5.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="18" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="8" max="8" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
@@ -775,10 +755,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G5" s="15">
-        <v>163020</v>
+        <v>418310</v>
+      </c>
+      <c r="H5" s="23">
+        <v>46019</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -795,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G6" s="15">
-        <v>418310</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -815,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G7" s="15">
-        <v>16660</v>
+        <v>429580</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -835,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="15">
-        <v>429580</v>
+        <v>18730</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -846,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="13">
         <v>2250</v>
@@ -855,10 +838,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G9" s="15">
-        <v>18730</v>
+        <v>19910</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -871,14 +854,13 @@
       <c r="C10" s="13">
         <v>49880</v>
       </c>
-      <c r="E10" s="11">
-        <v>9</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="15">
-        <v>19910</v>
+      <c r="E10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="17">
+        <f>SUM(G2:G9)</f>
+        <v>1012955</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -893,14 +875,7 @@
       <c r="C11" s="13">
         <v>26680</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17">
-        <f>SUM(G2:G10)</f>
-        <v>1175975</v>
-      </c>
+      <c r="G11" s="18"/>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -913,6 +888,7 @@
       <c r="C12" s="13">
         <v>1240</v>
       </c>
+      <c r="G12" s="19"/>
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -925,6 +901,7 @@
       <c r="C13" s="13">
         <v>43300</v>
       </c>
+      <c r="G13" s="19"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -937,6 +914,7 @@
       <c r="C14" s="13">
         <v>5770</v>
       </c>
+      <c r="G14" s="19"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -949,6 +927,7 @@
       <c r="C15" s="13">
         <v>1150</v>
       </c>
+      <c r="G15" s="19"/>
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -956,11 +935,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13">
-        <v>7770</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="G16" s="19"/>
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -968,11 +948,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C17" s="13">
-        <v>1640</v>
-      </c>
+        <v>7770</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -980,11 +963,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13">
-        <v>5160</v>
-      </c>
+        <v>1640</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -992,73 +978,84 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13">
+        <v>5160</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C20" s="13">
         <v>37350</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="7">
-        <f>SUM(C2:C19)</f>
-        <v>212600</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="16">
-        <f>C20+G11</f>
-        <v>1388575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
-      <c r="H21" s="6"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="7">
+        <f>SUM(C2:C20)</f>
+        <v>213790</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1"/>
-    <row r="25" spans="1:10">
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1"/>
+    <row r="24" spans="1:10" ht="24" customHeight="1">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="G26" s="10"/>
+    </row>
     <row r="27" spans="1:10">
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="33" spans="6:6" ht="15" customHeight="1"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="33" spans="6:6" ht="15" customHeight="1">
+      <c r="F33" s="6"/>
+    </row>
     <row r="34" spans="6:6">
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:C27">
@@ -1066,15 +1063,15 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="2">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
-  <conditionalFormatting sqref="F30:F36">
+  <conditionalFormatting sqref="F29:F35">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1093,7 +1090,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G34">
+  <conditionalFormatting sqref="G27:G33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1105,7 +1102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G36">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -1181,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1203,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
